--- a/Database/Tables.xlsx
+++ b/Database/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19095" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Currencies" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>varchar(5)</t>
   </si>
   <si>
-    <t>Autoincremented</t>
-  </si>
-  <si>
     <t>Not null</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Primary Key</t>
+  </si>
+  <si>
+    <t>AutoIncremented</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -429,7 +429,7 @@
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -529,11 +529,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -543,32 +547,32 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -579,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
